--- a/earlywarning-pom/Document/test/ESTERE/test_ind_CIB_svil.xlsx
+++ b/earlywarning-pom/Document/test/ESTERE/test_ind_CIB_svil.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="167">
   <si>
     <t>SNDG</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>MISSING</t>
-  </si>
-  <si>
-    <t>campo valorizzato</t>
   </si>
   <si>
     <t>esito</t>
@@ -612,6 +609,33 @@
   </si>
   <si>
     <t>val</t>
+  </si>
+  <si>
+    <t>EST000037</t>
+  </si>
+  <si>
+    <t>EST000038</t>
+  </si>
+  <si>
+    <t>E0002</t>
+  </si>
+  <si>
+    <t>EST000039</t>
+  </si>
+  <si>
+    <t>EST000046</t>
+  </si>
+  <si>
+    <t>EST000044</t>
+  </si>
+  <si>
+    <t>EST000043</t>
+  </si>
+  <si>
+    <t>EST000045</t>
+  </si>
+  <si>
+    <t>EST000048</t>
   </si>
 </sst>
 </file>
@@ -835,9 +859,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +869,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1186,10 +1210,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1256,10 +1280,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
@@ -1298,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T294"/>
+  <dimension ref="A1:T305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C295" sqref="C295"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,17 +1341,19 @@
     <col min="9" max="9" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="19.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" style="7"/>
+    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>26</v>
@@ -1336,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>83156744</v>
@@ -1460,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>83155379</v>
@@ -1480,7 +1506,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>83616699</v>
@@ -1500,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>83153794</v>
@@ -1520,7 +1546,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>83158271</v>
@@ -1537,12 +1563,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>26</v>
@@ -1551,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,16 +1603,16 @@
         <v>86474383</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1601,16 +1627,16 @@
         <v>89294047</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1625,16 +1651,16 @@
         <v>90719180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1673,16 +1699,16 @@
         <v>89897223</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -1691,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>91132937</v>
@@ -1717,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>91132185</v>
@@ -1743,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>90932629</v>
@@ -1769,7 +1795,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>90853179</v>
@@ -1795,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <v>90719064</v>
@@ -1818,20 +1844,20 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>26</v>
@@ -1840,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,26 +1951,26 @@
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="21">
+      <c r="B34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="20">
         <v>90536936</v>
       </c>
-      <c r="D34" s="21">
-        <v>0</v>
-      </c>
-      <c r="E34" s="21">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21"/>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="1">
         <v>78296068</v>
@@ -1960,11 +1986,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1">
         <v>78306012</v>
@@ -1980,11 +2006,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1">
         <v>78277710</v>
@@ -2000,11 +2026,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1">
         <v>78273173</v>
@@ -2020,11 +2046,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1">
         <v>90882015</v>
@@ -2040,16 +2066,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>26</v>
@@ -2058,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,7 +2188,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
@@ -2180,7 +2206,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="1">
         <v>83135479</v>
@@ -2200,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="1">
         <v>83155736</v>
@@ -2220,7 +2246,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1">
         <v>91143327</v>
@@ -2240,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="1">
         <v>91487046</v>
@@ -2257,12 +2283,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>26</v>
@@ -2271,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="D56" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,7 +2401,7 @@
         <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
         <v>90209558</v>
@@ -2395,7 +2421,7 @@
         <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
         <v>83770967</v>
@@ -2415,7 +2441,7 @@
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="1">
         <v>91143372</v>
@@ -2435,7 +2461,7 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1">
         <v>83155463</v>
@@ -2455,7 +2481,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
         <v>83155254</v>
@@ -2472,12 +2498,12 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>26</v>
@@ -2486,13 +2512,13 @@
         <v>0</v>
       </c>
       <c r="D69" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="F69" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,12 +2721,12 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>26</v>
@@ -2709,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="F83" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2918,12 +2944,12 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>26</v>
@@ -2932,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="D97" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="F97" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,12 +3167,12 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>26</v>
@@ -3155,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="D111" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="F111" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,12 +3390,12 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>26</v>
@@ -3378,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="D125" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E125" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E125" s="10" t="s">
+      <c r="F125" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3587,12 +3613,12 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B138" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>26</v>
@@ -3601,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="D139" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="F139" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3810,12 +3836,12 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B152" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>26</v>
@@ -3824,13 +3850,13 @@
         <v>0</v>
       </c>
       <c r="D153" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="F153" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,12 +4059,12 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>26</v>
@@ -4047,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="D167" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="F167" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4256,12 +4282,12 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B180" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>26</v>
@@ -4270,25 +4296,25 @@
         <v>0</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="J181" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -4301,7 +4327,7 @@
       <c r="C182" s="1">
         <v>86641367</v>
       </c>
-      <c r="D182" s="22">
+      <c r="D182" s="21">
         <v>983000</v>
       </c>
       <c r="E182" s="1">
@@ -4331,7 +4357,7 @@
       <c r="C183" s="1">
         <v>84782266</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="21">
         <v>45365000</v>
       </c>
       <c r="E183" s="1">
@@ -4361,7 +4387,7 @@
       <c r="C184" s="1">
         <v>80963137</v>
       </c>
-      <c r="D184" s="22">
+      <c r="D184" s="21">
         <v>155112000</v>
       </c>
       <c r="E184" s="1">
@@ -4391,7 +4417,7 @@
       <c r="C185" s="1">
         <v>89981264</v>
       </c>
-      <c r="D185" s="22">
+      <c r="D185" s="21">
         <v>55239000</v>
       </c>
       <c r="E185" s="1">
@@ -4421,7 +4447,7 @@
       <c r="C186" s="1">
         <v>84777797</v>
       </c>
-      <c r="D186" s="22">
+      <c r="D186" s="21">
         <v>20637000</v>
       </c>
       <c r="E186" s="1">
@@ -4451,7 +4477,7 @@
       <c r="C187" s="1">
         <v>83922701</v>
       </c>
-      <c r="D187" s="22">
+      <c r="D187" s="21">
         <v>86461000</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -4483,7 +4509,7 @@
       <c r="C188" s="1">
         <v>80965126</v>
       </c>
-      <c r="D188" s="22">
+      <c r="D188" s="21">
         <v>129638000</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -4515,7 +4541,7 @@
       <c r="C189" s="1">
         <v>80951492</v>
       </c>
-      <c r="D189" s="22">
+      <c r="D189" s="21">
         <v>1726000</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -4807,12 +4833,12 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B200" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>26</v>
@@ -4821,31 +4847,31 @@
         <v>0</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="K201" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K201" s="1" t="s">
+      <c r="L201" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L201" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -4858,10 +4884,10 @@
       <c r="C202" s="1">
         <v>81647598</v>
       </c>
-      <c r="D202" s="22">
+      <c r="D202" s="21">
         <v>154995000</v>
       </c>
-      <c r="E202" s="22">
+      <c r="E202" s="21">
         <v>3933000</v>
       </c>
       <c r="F202" s="1">
@@ -4894,10 +4920,10 @@
       <c r="C203" s="1">
         <v>35999851</v>
       </c>
-      <c r="D203" s="22">
+      <c r="D203" s="21">
         <v>209742000</v>
       </c>
-      <c r="E203" s="22">
+      <c r="E203" s="21">
         <v>11232000</v>
       </c>
       <c r="F203" s="1">
@@ -4930,10 +4956,10 @@
       <c r="C204" s="1">
         <v>81358731</v>
       </c>
-      <c r="D204" s="22">
+      <c r="D204" s="21">
         <v>586045000</v>
       </c>
-      <c r="E204" s="22">
+      <c r="E204" s="21">
         <v>21534000</v>
       </c>
       <c r="F204" s="1">
@@ -4966,10 +4992,10 @@
       <c r="C205" s="1">
         <v>80948855</v>
       </c>
-      <c r="D205" s="22">
+      <c r="D205" s="21">
         <v>576127000</v>
       </c>
-      <c r="E205" s="22">
+      <c r="E205" s="21">
         <v>1225000</v>
       </c>
       <c r="F205" s="1">
@@ -5002,10 +5028,10 @@
       <c r="C206" s="1">
         <v>80959645</v>
       </c>
-      <c r="D206" s="22">
+      <c r="D206" s="21">
         <v>74369000</v>
       </c>
-      <c r="E206" s="22">
+      <c r="E206" s="21">
         <v>1693000</v>
       </c>
       <c r="F206" s="1">
@@ -5190,7 +5216,7 @@
       <c r="C211" s="1">
         <v>84613906</v>
       </c>
-      <c r="D211" s="22">
+      <c r="D211" s="21">
         <v>590000</v>
       </c>
       <c r="E211" s="1">
@@ -5228,7 +5254,7 @@
       <c r="C212" s="1">
         <v>87556048</v>
       </c>
-      <c r="D212" s="22">
+      <c r="D212" s="21">
         <v>2967000</v>
       </c>
       <c r="E212" s="1">
@@ -5266,7 +5292,7 @@
       <c r="C213" s="1">
         <v>86727722</v>
       </c>
-      <c r="D213" s="22">
+      <c r="D213" s="21">
         <v>21486000</v>
       </c>
       <c r="E213" s="1">
@@ -5304,7 +5330,7 @@
       <c r="C214" s="1">
         <v>89551074</v>
       </c>
-      <c r="D214" s="22">
+      <c r="D214" s="21">
         <v>16169000</v>
       </c>
       <c r="E214" s="1">
@@ -5342,7 +5368,7 @@
       <c r="C215" s="1">
         <v>80950072</v>
       </c>
-      <c r="D215" s="22">
+      <c r="D215" s="21">
         <v>87142000</v>
       </c>
       <c r="E215" s="1">
@@ -5380,7 +5406,7 @@
       <c r="C216" s="1">
         <v>89229004</v>
       </c>
-      <c r="D216" s="22">
+      <c r="D216" s="21">
         <v>48503000</v>
       </c>
       <c r="E216" s="1">
@@ -5614,12 +5640,12 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B223" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>26</v>
@@ -5628,25 +5654,25 @@
         <v>0</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="H224" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="I224" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="J224" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="J224" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -5659,7 +5685,7 @@
       <c r="C225" s="1">
         <v>88370412</v>
       </c>
-      <c r="D225" s="22">
+      <c r="D225" s="21">
         <v>31364000</v>
       </c>
       <c r="E225" s="1">
@@ -5689,7 +5715,7 @@
       <c r="C226" s="1">
         <v>88457670</v>
       </c>
-      <c r="D226" s="22">
+      <c r="D226" s="21">
         <v>65473000</v>
       </c>
       <c r="E226" s="1">
@@ -5719,7 +5745,7 @@
       <c r="C227" s="1">
         <v>80962780</v>
       </c>
-      <c r="D227" s="22">
+      <c r="D227" s="21">
         <v>75539000</v>
       </c>
       <c r="E227" s="1">
@@ -5749,10 +5775,10 @@
       <c r="C228" s="1">
         <v>80961791</v>
       </c>
-      <c r="D228" s="22">
+      <c r="D228" s="21">
         <v>363920000</v>
       </c>
-      <c r="E228" s="22">
+      <c r="E228" s="21">
         <v>2352000</v>
       </c>
       <c r="F228" s="1">
@@ -5779,7 +5805,7 @@
       <c r="C229" s="1">
         <v>80954202</v>
       </c>
-      <c r="D229" s="22">
+      <c r="D229" s="21">
         <v>13154000</v>
       </c>
       <c r="E229" s="1">
@@ -5809,7 +5835,7 @@
       <c r="C230" s="1">
         <v>80942788</v>
       </c>
-      <c r="D230" s="22">
+      <c r="D230" s="21">
         <v>142120000</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -6153,12 +6179,12 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B242" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>26</v>
@@ -6167,31 +6193,31 @@
         <v>0</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F243" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G243" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="I243" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="J243" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="K243" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K243" s="1" t="s">
+      <c r="L243" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -6204,10 +6230,10 @@
       <c r="C244" s="1">
         <v>84775407</v>
       </c>
-      <c r="D244" s="22">
+      <c r="D244" s="21">
         <v>35382000</v>
       </c>
-      <c r="E244" s="22">
+      <c r="E244" s="21">
         <v>222000</v>
       </c>
       <c r="F244" s="1">
@@ -6240,10 +6266,10 @@
       <c r="C245" s="1">
         <v>84817245</v>
       </c>
-      <c r="D245" s="22">
+      <c r="D245" s="21">
         <v>221328000</v>
       </c>
-      <c r="E245" s="22">
+      <c r="E245" s="21">
         <v>2254000</v>
       </c>
       <c r="F245" s="1">
@@ -6276,10 +6302,10 @@
       <c r="C246" s="1">
         <v>80949472</v>
       </c>
-      <c r="D246" s="22">
+      <c r="D246" s="21">
         <v>3026146000</v>
       </c>
-      <c r="E246" s="22">
+      <c r="E246" s="21">
         <v>7387000</v>
       </c>
       <c r="F246" s="1">
@@ -6312,10 +6338,10 @@
       <c r="C247" s="1">
         <v>80962264</v>
       </c>
-      <c r="D247" s="22">
+      <c r="D247" s="21">
         <v>3345706000</v>
       </c>
-      <c r="E247" s="22">
+      <c r="E247" s="21">
         <v>73733000</v>
       </c>
       <c r="F247" s="1">
@@ -6348,10 +6374,10 @@
       <c r="C248" s="1">
         <v>48216169</v>
       </c>
-      <c r="D248" s="22">
+      <c r="D248" s="21">
         <v>9406529000</v>
       </c>
-      <c r="E248" s="22">
+      <c r="E248" s="21">
         <v>119059000</v>
       </c>
       <c r="F248" s="1">
@@ -6375,7 +6401,7 @@
       <c r="L248" s="1"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -6384,7 +6410,7 @@
       <c r="C249" s="1">
         <v>80950086</v>
       </c>
-      <c r="D249" s="22">
+      <c r="D249" s="21">
         <v>78333000</v>
       </c>
       <c r="E249" s="1">
@@ -6413,7 +6439,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="20" t="s">
+      <c r="A250" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -6451,7 +6477,7 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="20" t="s">
+      <c r="A251" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -6489,7 +6515,7 @@
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A252" s="20" t="s">
+      <c r="A252" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -6527,7 +6553,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="20" t="s">
+      <c r="A253" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -6565,7 +6591,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A254" s="20" t="s">
+      <c r="A254" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -6574,7 +6600,7 @@
       <c r="C254" s="1">
         <v>80954437</v>
       </c>
-      <c r="D254" s="22">
+      <c r="D254" s="21">
         <v>67832000</v>
       </c>
       <c r="E254" s="1">
@@ -6603,7 +6629,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="20" t="s">
+      <c r="A255" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -6612,7 +6638,7 @@
       <c r="C255" s="1">
         <v>82679473</v>
       </c>
-      <c r="D255" s="22">
+      <c r="D255" s="21">
         <v>14939000</v>
       </c>
       <c r="E255" s="1">
@@ -6641,7 +6667,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -6650,7 +6676,7 @@
       <c r="C256" s="1">
         <v>81633168</v>
       </c>
-      <c r="D256" s="22">
+      <c r="D256" s="21">
         <v>15822000</v>
       </c>
       <c r="E256" s="1">
@@ -6678,8 +6704,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="20" t="s">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -6688,7 +6714,7 @@
       <c r="C257" s="1">
         <v>80955761</v>
       </c>
-      <c r="D257" s="22">
+      <c r="D257" s="21">
         <v>41662000</v>
       </c>
       <c r="E257" s="1">
@@ -6716,8 +6742,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="20" t="s">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -6726,7 +6752,7 @@
       <c r="C258" s="1">
         <v>48184535</v>
       </c>
-      <c r="D258" s="22">
+      <c r="D258" s="21">
         <v>173064000</v>
       </c>
       <c r="E258" s="1">
@@ -6754,14 +6780,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B260" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>26</v>
@@ -6770,136 +6796,134 @@
         <v>0</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E261" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="G261" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H261" s="1" t="s">
+      <c r="I261" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I261" s="1" t="s">
+      <c r="J261" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="K261" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K261" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
+      </c>
+      <c r="D262" s="1">
+        <v>10</v>
+      </c>
+      <c r="E262" s="1">
+        <v>50</v>
       </c>
       <c r="F262" s="1">
-        <v>0</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>23</v>
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G262" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H262" s="1">
+        <v>-37.889389999999999</v>
       </c>
       <c r="I262" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J262" s="1">
-        <v>0</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>23</v>
+        <v>159</v>
+      </c>
+      <c r="D263" s="1">
+        <v>10</v>
+      </c>
+      <c r="E263" s="1">
+        <v>-500</v>
       </c>
       <c r="F263" s="1">
-        <v>0</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>23</v>
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G263" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H263" s="1">
+        <v>-37.889389999999999</v>
       </c>
       <c r="I263" s="1">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J263" s="1">
-        <v>0</v>
+        <v>-37.889389999999999</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>23</v>
+        <v>161</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>500</v>
       </c>
       <c r="F264" s="1">
-        <v>0</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>23</v>
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G264" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H264" s="1">
+        <v>-37.889389999999999</v>
       </c>
       <c r="I264" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J264" s="1">
-        <v>0</v>
+        <v>315.73630000000003</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>25</v>
       </c>
@@ -6907,7 +6931,7 @@
         <v>29</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>23</v>
@@ -6916,25 +6940,25 @@
         <v>23</v>
       </c>
       <c r="F265" s="1">
-        <v>0</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>23</v>
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G265" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H265" s="1">
+        <v>-37.889389999999999</v>
       </c>
       <c r="I265" s="1">
-        <v>0</v>
+        <v>5.0880450000000002</v>
       </c>
       <c r="J265" s="1">
-        <v>0</v>
+        <v>5.0880450000000002</v>
       </c>
       <c r="K265" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>25</v>
       </c>
@@ -6942,7 +6966,7 @@
         <v>29</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>23</v>
@@ -6951,721 +6975,892 @@
         <v>23</v>
       </c>
       <c r="F266" s="1">
-        <v>0</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>23</v>
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G266" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H266" s="1">
+        <v>-37.889389999999999</v>
       </c>
       <c r="I266" s="1">
-        <v>0</v>
+        <v>5.0880450000000002</v>
       </c>
       <c r="J266" s="1">
-        <v>0</v>
+        <v>5.0880450000000002</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B267" s="7" t="s">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F267" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G267" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H267" s="1">
+        <v>-37.889389999999999</v>
+      </c>
+      <c r="I267" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="J267" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G268" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H268" s="1">
+        <v>-37.889389999999999</v>
+      </c>
+      <c r="I268" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="J268" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F269" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="G269" s="1">
+        <v>315.73630000000003</v>
+      </c>
+      <c r="H269" s="1">
+        <v>-37.889389999999999</v>
+      </c>
+      <c r="I269" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="J269" s="1">
+        <v>5.0880450000000002</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B272" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A273" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="16" t="s">
+      <c r="B273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D274" s="1">
+        <v>10</v>
+      </c>
+      <c r="E274" s="1">
+        <v>50</v>
+      </c>
+      <c r="F274" s="1">
+        <v>50</v>
+      </c>
+      <c r="G274" s="1">
+        <v>350</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J274" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L274" s="1">
+        <v>0.14285700000000001</v>
+      </c>
+      <c r="M274" s="1">
+        <v>-0.285715</v>
+      </c>
+      <c r="N274" s="1">
+        <v>-0.285715</v>
+      </c>
+      <c r="O274" s="1"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D275" s="1">
+        <v>10</v>
+      </c>
+      <c r="E275" s="1">
+        <v>-500</v>
+      </c>
+      <c r="F275" s="1">
+        <v>20</v>
+      </c>
+      <c r="G275" s="21">
+        <v>-1000</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J275" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K275" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="L275" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="M275" s="1">
+        <v>0</v>
+      </c>
+      <c r="N275" s="1">
+        <v>0</v>
+      </c>
+      <c r="O275" s="1"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D276" s="1">
+        <v>10</v>
+      </c>
+      <c r="E276" s="1">
+        <v>50</v>
+      </c>
+      <c r="F276" s="1">
+        <v>20</v>
+      </c>
+      <c r="G276" s="1">
+        <v>100</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0</v>
+      </c>
+      <c r="I276" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J276" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L276" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M276" s="1">
+        <v>0</v>
+      </c>
+      <c r="N276" s="1">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="1">
+        <v>500</v>
+      </c>
+      <c r="F277" s="1">
+        <v>2</v>
+      </c>
+      <c r="G277" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J277" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K277" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="L277" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="M277" s="1">
+        <v>0</v>
+      </c>
+      <c r="N277" s="1">
+        <v>0</v>
+      </c>
+      <c r="O277" s="1"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1">
+        <v>500</v>
+      </c>
+      <c r="F278" s="1">
+        <v>35</v>
+      </c>
+      <c r="G278" s="21">
+        <v>3000</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0</v>
+      </c>
+      <c r="I278" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J278" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K278" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="L278" s="1">
+        <v>1.1667E-2</v>
+      </c>
+      <c r="M278" s="1">
+        <v>4.8334999999999999</v>
+      </c>
+      <c r="N278" s="1">
+        <v>4.8334999999999999</v>
+      </c>
+      <c r="O278" s="1"/>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0</v>
+      </c>
+      <c r="I279" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J279" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M279" s="1">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1">
+        <v>0</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0</v>
+      </c>
+      <c r="I280" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J280" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M280" s="1">
+        <v>0</v>
+      </c>
+      <c r="N280" s="1">
+        <v>0</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0</v>
+      </c>
+      <c r="I281" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J281" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M281" s="1">
+        <v>0</v>
+      </c>
+      <c r="N281" s="1">
+        <v>0</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0</v>
+      </c>
+      <c r="I282" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J282" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M282" s="1">
+        <v>0</v>
+      </c>
+      <c r="N282" s="1">
+        <v>0</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H283" s="1">
+        <v>0</v>
+      </c>
+      <c r="I283" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J283" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M283" s="1">
+        <v>0</v>
+      </c>
+      <c r="N283" s="1">
+        <v>0</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F284" s="1">
+        <v>10</v>
+      </c>
+      <c r="G284" s="1">
+        <v>50</v>
+      </c>
+      <c r="H284" s="1">
+        <v>0</v>
+      </c>
+      <c r="I284" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J284" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L284" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M284" s="1">
+        <v>0</v>
+      </c>
+      <c r="N284" s="1">
+        <v>0</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F285" s="1">
+        <v>10</v>
+      </c>
+      <c r="G285" s="1">
+        <v>-500</v>
+      </c>
+      <c r="H285" s="1">
+        <v>0</v>
+      </c>
+      <c r="I285" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J285" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L285" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="M285" s="1">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1">
+        <v>0</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F286" s="1">
+        <v>1</v>
+      </c>
+      <c r="G286" s="1">
+        <v>500</v>
+      </c>
+      <c r="H286" s="1">
+        <v>0</v>
+      </c>
+      <c r="I286" s="1">
+        <v>81.292680000000004</v>
+      </c>
+      <c r="J286" s="1">
+        <v>-9.3850289999999994</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L286" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="M286" s="1">
+        <v>0</v>
+      </c>
+      <c r="N286" s="1">
+        <v>0</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A287" s="11"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B289" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="T289"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F290" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F270" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K270" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L270" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M270" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F271" s="1">
-        <v>0</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K271" s="1">
-        <v>0</v>
-      </c>
-      <c r="L271" s="1">
-        <v>0</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F272" s="1">
-        <v>0</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K272" s="1">
-        <v>0</v>
-      </c>
-      <c r="L272" s="1">
-        <v>0</v>
-      </c>
-      <c r="M272" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F273" s="1">
-        <v>0</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K273" s="1">
-        <v>0</v>
-      </c>
-      <c r="L273" s="1">
-        <v>0</v>
-      </c>
-      <c r="M273" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F274" s="1">
-        <v>0</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J274" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K274" s="1">
-        <v>0</v>
-      </c>
-      <c r="L274" s="1">
-        <v>0</v>
-      </c>
-      <c r="M274" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F275" s="1">
-        <v>0</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K275" s="1">
-        <v>0</v>
-      </c>
-      <c r="L275" s="1">
-        <v>0</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A276" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B278" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="T278"/>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A279" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F279" s="1" t="s">
+      <c r="G290" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="H290" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H279" s="1" t="s">
+      <c r="I290" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I279" s="1" t="s">
+      <c r="J290" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J279" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T279"/>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C280" s="1">
+      <c r="T290"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C291" s="1">
         <v>80964888</v>
       </c>
-      <c r="D280" s="22">
+      <c r="D291" s="21">
         <v>4577000</v>
       </c>
-      <c r="E280" s="22">
+      <c r="E291" s="21">
         <v>2349000</v>
       </c>
-      <c r="F280" s="1">
-        <v>0</v>
-      </c>
-      <c r="G280" s="1">
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1">
         <v>11.198779999999999</v>
       </c>
-      <c r="H280" s="1">
+      <c r="H291" s="1">
         <v>-0.48678199999999999</v>
       </c>
-      <c r="I280" s="1">
+      <c r="I291" s="1">
         <v>-0.48678199999999999</v>
       </c>
-      <c r="J280" s="1"/>
-      <c r="T280"/>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C281" s="1">
+      <c r="J291" s="1"/>
+      <c r="T291"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C292" s="1">
         <v>89316627</v>
       </c>
-      <c r="D281" s="22">
+      <c r="D292" s="21">
         <v>277000</v>
-      </c>
-      <c r="E281" s="1">
-        <v>0</v>
-      </c>
-      <c r="F281" s="1">
-        <v>0</v>
-      </c>
-      <c r="G281" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H281" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I281" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J281" s="1"/>
-      <c r="T281"/>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C282" s="1">
-        <v>48209018</v>
-      </c>
-      <c r="D282" s="22">
-        <v>13661000</v>
-      </c>
-      <c r="E282" s="22">
-        <v>11072000</v>
-      </c>
-      <c r="F282" s="1">
-        <v>0</v>
-      </c>
-      <c r="G282" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H282" s="1">
-        <v>-0.18951799999999999</v>
-      </c>
-      <c r="I282" s="1">
-        <v>-0.18951799999999999</v>
-      </c>
-      <c r="J282" s="1"/>
-      <c r="T282"/>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C283" s="1">
-        <v>80956785</v>
-      </c>
-      <c r="D283" s="22">
-        <v>9160000</v>
-      </c>
-      <c r="E283" s="22">
-        <v>9055000</v>
-      </c>
-      <c r="F283" s="1">
-        <v>0</v>
-      </c>
-      <c r="G283" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H283" s="1">
-        <v>-1.1462999999999999E-2</v>
-      </c>
-      <c r="I283" s="1">
-        <v>-1.1462999999999999E-2</v>
-      </c>
-      <c r="J283" s="1"/>
-      <c r="T283"/>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C284" s="1">
-        <v>80948693</v>
-      </c>
-      <c r="D284" s="22">
-        <v>6589000</v>
-      </c>
-      <c r="E284" s="22">
-        <v>6897000</v>
-      </c>
-      <c r="F284" s="1">
-        <v>0</v>
-      </c>
-      <c r="G284" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H284" s="1">
-        <v>4.6745000000000002E-2</v>
-      </c>
-      <c r="I284" s="1">
-        <v>4.6745000000000002E-2</v>
-      </c>
-      <c r="J284" s="1"/>
-      <c r="T284"/>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C285" s="1">
-        <v>80963432</v>
-      </c>
-      <c r="D285" s="1">
-        <v>0</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F285" s="1">
-        <v>0</v>
-      </c>
-      <c r="G285" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H285" s="1">
-        <v>0</v>
-      </c>
-      <c r="I285" s="1">
-        <v>0</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C286" s="1">
-        <v>80960324</v>
-      </c>
-      <c r="D286" s="1">
-        <v>0</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F286" s="1">
-        <v>0</v>
-      </c>
-      <c r="G286" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H286" s="1">
-        <v>0</v>
-      </c>
-      <c r="I286" s="1">
-        <v>0</v>
-      </c>
-      <c r="J286" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C287" s="1">
-        <v>80964456</v>
-      </c>
-      <c r="D287" s="1">
-        <v>0</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F287" s="1">
-        <v>0</v>
-      </c>
-      <c r="G287" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H287" s="1">
-        <v>0</v>
-      </c>
-      <c r="I287" s="1">
-        <v>0</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C288" s="1">
-        <v>80952296</v>
-      </c>
-      <c r="D288" s="1">
-        <v>0</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F288" s="1">
-        <v>0</v>
-      </c>
-      <c r="G288" s="1">
-        <v>11.198779999999999</v>
-      </c>
-      <c r="H288" s="1">
-        <v>0</v>
-      </c>
-      <c r="I288" s="1">
-        <v>0</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" s="1">
-        <v>80955641</v>
-      </c>
-      <c r="D289" s="1">
-        <v>0</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F289" s="1">
-        <v>0</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H289" s="1">
-        <v>0</v>
-      </c>
-      <c r="I289" s="1">
-        <v>0</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" s="1">
-        <v>84780246</v>
-      </c>
-      <c r="D290" s="1">
-        <v>0</v>
-      </c>
-      <c r="E290" s="1">
-        <v>0</v>
-      </c>
-      <c r="F290" s="1">
-        <v>0</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H290" s="1">
-        <v>0</v>
-      </c>
-      <c r="I290" s="1">
-        <v>0</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C291" s="1">
-        <v>90061925</v>
-      </c>
-      <c r="D291" s="1">
-        <v>0</v>
-      </c>
-      <c r="E291" s="1">
-        <v>0</v>
-      </c>
-      <c r="F291" s="1">
-        <v>0</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H291" s="1">
-        <v>0</v>
-      </c>
-      <c r="I291" s="1">
-        <v>0</v>
-      </c>
-      <c r="J291" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C292" s="1">
-        <v>81202932</v>
-      </c>
-      <c r="D292" s="1">
-        <v>0</v>
       </c>
       <c r="E292" s="1">
         <v>0</v>
@@ -7677,30 +7872,29 @@
         <v>11.198779999999999</v>
       </c>
       <c r="H292" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I292" s="1">
-        <v>0</v>
-      </c>
-      <c r="J292" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="J292" s="1"/>
+      <c r="T292"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="C293" s="1">
-        <v>80950168</v>
-      </c>
-      <c r="D293" s="1">
-        <v>0</v>
-      </c>
-      <c r="E293" s="1">
-        <v>0</v>
+        <v>48209018</v>
+      </c>
+      <c r="D293" s="21">
+        <v>13661000</v>
+      </c>
+      <c r="E293" s="21">
+        <v>11072000</v>
       </c>
       <c r="F293" s="1">
         <v>0</v>
@@ -7709,44 +7903,393 @@
         <v>11.198779999999999</v>
       </c>
       <c r="H293" s="1">
-        <v>0</v>
+        <v>-0.18951799999999999</v>
       </c>
       <c r="I293" s="1">
-        <v>0</v>
-      </c>
-      <c r="J293" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-0.18951799999999999</v>
+      </c>
+      <c r="J293" s="1"/>
+      <c r="T293"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C294" s="1">
+        <v>80956785</v>
+      </c>
+      <c r="D294" s="21">
+        <v>9160000</v>
+      </c>
+      <c r="E294" s="21">
+        <v>9055000</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0</v>
+      </c>
+      <c r="G294" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H294" s="1">
+        <v>-1.1462999999999999E-2</v>
+      </c>
+      <c r="I294" s="1">
+        <v>-1.1462999999999999E-2</v>
+      </c>
+      <c r="J294" s="1"/>
+      <c r="T294"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C295" s="1">
+        <v>80948693</v>
+      </c>
+      <c r="D295" s="21">
+        <v>6589000</v>
+      </c>
+      <c r="E295" s="21">
+        <v>6897000</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H295" s="1">
+        <v>4.6745000000000002E-2</v>
+      </c>
+      <c r="I295" s="1">
+        <v>4.6745000000000002E-2</v>
+      </c>
+      <c r="J295" s="1"/>
+      <c r="T295"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C296" s="1">
+        <v>80963432</v>
+      </c>
+      <c r="D296" s="1">
+        <v>0</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F296" s="1">
+        <v>0</v>
+      </c>
+      <c r="G296" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H296" s="1">
+        <v>0</v>
+      </c>
+      <c r="I296" s="1">
+        <v>0</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C297" s="1">
+        <v>80960324</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F297" s="1">
+        <v>0</v>
+      </c>
+      <c r="G297" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H297" s="1">
+        <v>0</v>
+      </c>
+      <c r="I297" s="1">
+        <v>0</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="1">
+        <v>80964456</v>
+      </c>
+      <c r="D298" s="1">
+        <v>0</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+      <c r="G298" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H298" s="1">
+        <v>0</v>
+      </c>
+      <c r="I298" s="1">
+        <v>0</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C299" s="1">
+        <v>80952296</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F299" s="1">
+        <v>0</v>
+      </c>
+      <c r="G299" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0</v>
+      </c>
+      <c r="I299" s="1">
+        <v>0</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="1">
+        <v>80955641</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H300" s="1">
+        <v>0</v>
+      </c>
+      <c r="I300" s="1">
+        <v>0</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C301" s="1">
+        <v>84780246</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0</v>
+      </c>
+      <c r="E301" s="1">
+        <v>0</v>
+      </c>
+      <c r="F301" s="1">
+        <v>0</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H301" s="1">
+        <v>0</v>
+      </c>
+      <c r="I301" s="1">
+        <v>0</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302" s="1">
+        <v>90061925</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0</v>
+      </c>
+      <c r="E302" s="1">
+        <v>0</v>
+      </c>
+      <c r="F302" s="1">
+        <v>0</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H302" s="1">
+        <v>0</v>
+      </c>
+      <c r="I302" s="1">
+        <v>0</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C303" s="1">
+        <v>81202932</v>
+      </c>
+      <c r="D303" s="1">
+        <v>0</v>
+      </c>
+      <c r="E303" s="1">
+        <v>0</v>
+      </c>
+      <c r="F303" s="1">
+        <v>0</v>
+      </c>
+      <c r="G303" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H303" s="1">
+        <v>0</v>
+      </c>
+      <c r="I303" s="1">
+        <v>0</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="1">
+        <v>80950168</v>
+      </c>
+      <c r="D304" s="1">
+        <v>0</v>
+      </c>
+      <c r="E304" s="1">
+        <v>0</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+      <c r="G304" s="1">
+        <v>11.198779999999999</v>
+      </c>
+      <c r="H304" s="1">
+        <v>0</v>
+      </c>
+      <c r="I304" s="1">
+        <v>0</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" s="1">
         <v>80946489</v>
       </c>
-      <c r="D294" s="1">
-        <v>0</v>
-      </c>
-      <c r="E294" s="1">
-        <v>0</v>
-      </c>
-      <c r="F294" s="1">
-        <v>0</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H294" s="1">
-        <v>0</v>
-      </c>
-      <c r="I294" s="1">
-        <v>0</v>
-      </c>
-      <c r="J294" s="1" t="s">
+      <c r="D305" s="1">
+        <v>0</v>
+      </c>
+      <c r="E305" s="1">
+        <v>0</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H305" s="1">
+        <v>0</v>
+      </c>
+      <c r="I305" s="1">
+        <v>0</v>
+      </c>
+      <c r="J305" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7760,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7795,10 +8338,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
